--- a/Problem Solving/FINAL450.xlsx
+++ b/Problem Solving/FINAL450.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,6 +1425,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Optimal solution remains</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,6 +1507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1552,6 +1561,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1867,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1880,17 +1898,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1901,12 +1919,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" s="14" customFormat="1" ht="21">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1917,40 +1935,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1961,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>

--- a/Problem Solving/FINAL450.xlsx
+++ b/Problem Solving/FINAL450.xlsx
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1969,25 +1969,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="21">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
     </row>
